--- a/Employee_Reports21/Wali Mohammed Sabry Q0538.xlsx
+++ b/Employee_Reports21/Wali Mohammed Sabry Q0538.xlsx
@@ -548,11 +548,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
